--- a/Blog Post Data Analysis/Model_Summary_2v2_V2.xlsx
+++ b/Blog Post Data Analysis/Model_Summary_2v2_V2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>Categorical Variable</t>
   </si>
@@ -80,30 +80,33 @@
     <t>NetControl3</t>
   </si>
   <si>
+    <t>NetControlReceived3</t>
+  </si>
+  <si>
+    <t>TeamRatioREX50</t>
+  </si>
+  <si>
     <t>NetPing3</t>
   </si>
   <si>
-    <t>TeamRatioREX50</t>
+    <t>EnemyRatioREX50</t>
+  </si>
+  <si>
+    <t>NetOrbs</t>
   </si>
   <si>
     <t>NetDamageReceived3</t>
   </si>
   <si>
-    <t>EnemyRatioREX50</t>
-  </si>
-  <si>
-    <t>NetOrbs</t>
-  </si>
-  <si>
     <t>NetScorePerSecond3</t>
   </si>
   <si>
+    <t>First_Orb</t>
+  </si>
+  <si>
     <t>NetLeagueDivisionValue3</t>
   </si>
   <si>
-    <t>First_Orb</t>
-  </si>
-  <si>
     <t>TeamNetUltimates</t>
   </si>
   <si>
@@ -227,13 +230,13 @@
     <t>Linear</t>
   </si>
   <si>
-    <t>-1404.9387</t>
+    <t>-1321.5262</t>
   </si>
   <si>
     <t>First Order</t>
   </si>
   <si>
-    <t>-1496.6019</t>
+    <t>-1415.0217</t>
   </si>
   <si>
     <t>1.0</t>
@@ -245,198 +248,153 @@
     <t>Second Order</t>
   </si>
   <si>
-    <t>-1404.2113</t>
-  </si>
-  <si>
-    <t>0.2278</t>
-  </si>
-  <si>
-    <t>-1553.9825</t>
-  </si>
-  <si>
-    <t>-1404.1013</t>
-  </si>
-  <si>
-    <t>0.1956</t>
+    <t>-1450.9471</t>
+  </si>
+  <si>
+    <t>-1320.2007</t>
+  </si>
+  <si>
+    <t>0.1035</t>
   </si>
   <si>
     <t>-2</t>
   </si>
   <si>
-    <t>-1415.0265</t>
-  </si>
-  <si>
-    <t>-1405.0976</t>
-  </si>
-  <si>
-    <t>-1397.9591</t>
+    <t>-1331.6116</t>
+  </si>
+  <si>
+    <t>-1321.4978</t>
+  </si>
+  <si>
+    <t>0.8117</t>
+  </si>
+  <si>
+    <t>-1313.7672</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>-1311.8703</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>3, 1</t>
+  </si>
+  <si>
+    <t>-1864.9634</t>
+  </si>
+  <si>
+    <t>-1773.3886</t>
+  </si>
+  <si>
+    <t>-1446.6277</t>
+  </si>
+  <si>
+    <t>-1311.067</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>-1307.0508</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>-1305.2623</t>
+  </si>
+  <si>
+    <t>-1304.9972</t>
+  </si>
+  <si>
+    <t>0.7671</t>
+  </si>
+  <si>
+    <t>3, 2</t>
+  </si>
+  <si>
+    <t>-1308.8594</t>
+  </si>
+  <si>
+    <t>-1300.3485</t>
   </si>
   <si>
     <t>0.0002</t>
   </si>
   <si>
-    <t>-1396.2246</t>
-  </si>
-  <si>
-    <t>0.1765</t>
-  </si>
-  <si>
-    <t>3, 1</t>
-  </si>
-  <si>
-    <t>-1397.2694</t>
-  </si>
-  <si>
-    <t>0.0001</t>
+    <t>-1302.1097</t>
+  </si>
+  <si>
+    <t>-1300.2865</t>
+  </si>
+  <si>
+    <t>0.1615</t>
+  </si>
+  <si>
+    <t>-1302.6503</t>
+  </si>
+  <si>
+    <t>-1302.0564</t>
+  </si>
+  <si>
+    <t>0.5522</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>-3107.1024</t>
+  </si>
+  <si>
+    <t>-2123.7001</t>
+  </si>
+  <si>
+    <t>-1490.7223</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>-1397.1789</t>
-  </si>
-  <si>
-    <t>0.9135</t>
+    <t>-1406.8183</t>
+  </si>
+  <si>
+    <t>-1304.7232</t>
+  </si>
+  <si>
+    <t>-1302.6164</t>
+  </si>
+  <si>
+    <t>0.1216</t>
   </si>
   <si>
     <t>2, 1</t>
   </si>
   <si>
-    <t>-1977.0428</t>
-  </si>
-  <si>
-    <t>-1874.7182</t>
-  </si>
-  <si>
-    <t>-1538.3523</t>
-  </si>
-  <si>
-    <t>-1395.7196</t>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-  </si>
-  <si>
-    <t>-1390.7804</t>
-  </si>
-  <si>
-    <t>0.0072</t>
-  </si>
-  <si>
-    <t>-1388.9479</t>
-  </si>
-  <si>
-    <t>-1388.7754</t>
-  </si>
-  <si>
-    <t>0.8416</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>-1388.8872</t>
-  </si>
-  <si>
-    <t>-1388.6877</t>
-  </si>
-  <si>
-    <t>0.8191</t>
-  </si>
-  <si>
-    <t>-1392.8799</t>
-  </si>
-  <si>
-    <t>-1385.1021</t>
-  </si>
-  <si>
-    <t>0.0004</t>
-  </si>
-  <si>
-    <t>1, 3</t>
-  </si>
-  <si>
-    <t>-1387.2823</t>
-  </si>
-  <si>
-    <t>-1385.0433</t>
-  </si>
-  <si>
-    <t>0.1066</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>-1387.5125</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-1387.2858</t>
-  </si>
-  <si>
-    <t>0.7971</t>
-  </si>
-  <si>
-    <t>-1388.2876</t>
-  </si>
-  <si>
-    <t>-1387.5119</t>
-  </si>
-  <si>
-    <t>0.4604</t>
-  </si>
-  <si>
-    <t>-3220.2625</t>
-  </si>
-  <si>
-    <t>-2242.1856</t>
-  </si>
-  <si>
-    <t>-1569.7877</t>
-  </si>
-  <si>
-    <t>-1474.4923</t>
-  </si>
-  <si>
-    <t>-1390.7652</t>
-  </si>
-  <si>
-    <t>-1388.2647</t>
-  </si>
-  <si>
-    <t>0.082</t>
-  </si>
-  <si>
     <t>Transformations</t>
   </si>
   <si>
     <t>NetDamage1_3</t>
   </si>
   <si>
-    <t>NetDamage2_2</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived2_3 | NetProtectionReceived2_1</t>
+    <t>NetProtectionReceived2_1 | NetProtectionReceived2_3</t>
   </si>
   <si>
     <t>NetControl1_3</t>
   </si>
   <si>
-    <t>NetControl2_3</t>
-  </si>
-  <si>
-    <t>NetControlReceived1_1 | NetControlReceived1_3</t>
+    <t>NetControlReceived1_3 | NetControlReceived1_1</t>
   </si>
   <si>
     <t>NetControlReceived2_3</t>
   </si>
   <si>
-    <t>NetPing1_-1</t>
-  </si>
-  <si>
     <t>NetPing2_-2</t>
   </si>
   <si>
@@ -461,42 +419,6 @@
     <t>TeamRatioUltimatesAll20 x NetProtection1</t>
   </si>
   <si>
-    <t>EnemyRatioUltimatesAll20_NetEnergyShards</t>
-  </si>
-  <si>
-    <t>EnemyRatioUltimatesAll20 x NetEnergyShards</t>
-  </si>
-  <si>
-    <t>EnemyRatioUltimatesAll20_NetControl2_3</t>
-  </si>
-  <si>
-    <t>EnemyRatioUltimatesAll20 x NetControl2</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50_NetOrbs</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50 x NetOrbs</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50_NetDamage1_3</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50 x NetDamage1</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50_NetProtection1</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50 x NetProtection1</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50_NetProtection2</t>
-  </si>
-  <si>
-    <t>TeamRatioREX50 x NetProtection2</t>
-  </si>
-  <si>
     <t>TeamRatioREX50_NetScorePerSecond1</t>
   </si>
   <si>
@@ -515,55 +437,19 @@
     <t>EnemyRatioREX50 x TeamNetUltimates</t>
   </si>
   <si>
-    <t>EnemyRatioREX50_NetDamage1_3</t>
-  </si>
-  <si>
-    <t>EnemyRatioREX50 x NetDamage1</t>
-  </si>
-  <si>
-    <t>EnemyRatioREX50_NetPing1_-1</t>
-  </si>
-  <si>
-    <t>EnemyRatioREX50 x NetPing1</t>
-  </si>
-  <si>
-    <t>EnemyRatioREX50_NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>EnemyRatioREX50 x NetScorePerSecond1</t>
-  </si>
-  <si>
     <t>NetHealthShards_NetControl1_3</t>
   </si>
   <si>
     <t>NetHealthShards x NetControl1</t>
   </si>
   <si>
-    <t>NetHealthShards_NetControlReceived1_1 | NetHealthShards_NetControlReceived1_3</t>
-  </si>
-  <si>
-    <t>NetHealthShards x NetControlReceived1</t>
-  </si>
-  <si>
-    <t>NetHealthShards_NetDamageReceived1</t>
-  </si>
-  <si>
-    <t>NetHealthShards x NetDamageReceived1</t>
-  </si>
-  <si>
-    <t>NetEnergyShards_NetLeagueDivisionValue1_3</t>
-  </si>
-  <si>
-    <t>NetEnergyShards x NetLeagueDivisionValue1</t>
-  </si>
-  <si>
     <t>NetOrbs_NetProtection2</t>
   </si>
   <si>
     <t>NetOrbs x NetProtection2</t>
   </si>
   <si>
-    <t>NetOrbs_NetProtectionReceived2_3 | NetOrbs_NetProtectionReceived2_1</t>
+    <t>NetOrbs_NetProtectionReceived2_1 | NetOrbs_NetProtectionReceived2_3</t>
   </si>
   <si>
     <t>NetOrbs x NetProtectionReceived2</t>
@@ -575,18 +461,30 @@
     <t>NetOrbs x NetControlReceived2</t>
   </si>
   <si>
+    <t>NetOrbs_NetScorePerSecond1</t>
+  </si>
+  <si>
+    <t>NetOrbs x NetScorePerSecond1</t>
+  </si>
+  <si>
+    <t>TeamNetEX_NetDamage1_3</t>
+  </si>
+  <si>
+    <t>TeamNetEX x NetDamage1</t>
+  </si>
+  <si>
+    <t>TeamNetEX_NetProtection2</t>
+  </si>
+  <si>
+    <t>TeamNetEX x NetProtection2</t>
+  </si>
+  <si>
     <t>TeamNetEX_NetControlReceived2_3</t>
   </si>
   <si>
     <t>TeamNetEX x NetControlReceived2</t>
   </si>
   <si>
-    <t>TeamNetEX_NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>TeamNetEX x NetScorePerSecond1</t>
-  </si>
-  <si>
     <t>TeamNetR_NetDamage1_3</t>
   </si>
   <si>
@@ -599,118 +497,46 @@
     <t>TeamNetR x NetProtectionReceived1</t>
   </si>
   <si>
-    <t>TeamNetR_NetPing1_-1</t>
-  </si>
-  <si>
-    <t>TeamNetR x NetPing1</t>
-  </si>
-  <si>
-    <t>TeamNetR_NetDamageReceived2</t>
-  </si>
-  <si>
-    <t>TeamNetR x NetDamageReceived2</t>
-  </si>
-  <si>
-    <t>NetDamage2_2_NetEnergyShards</t>
-  </si>
-  <si>
-    <t>NetDamage2 x NetEnergyShards</t>
-  </si>
-  <si>
-    <t>NetDamage2_2_NetProtectionReceived1</t>
-  </si>
-  <si>
-    <t>NetDamage2 x NetProtectionReceived1</t>
-  </si>
-  <si>
-    <t>NetDamage2_2_NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetDamage2 x NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetDamage2_2_NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetDamage2 x NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetProtection1_NetDamage2_2</t>
-  </si>
-  <si>
-    <t>NetProtection1 x NetDamage2</t>
-  </si>
-  <si>
-    <t>NetProtection1_NetProtectionReceived1</t>
-  </si>
-  <si>
-    <t>NetProtection1 x NetProtectionReceived1</t>
-  </si>
-  <si>
-    <t>NetProtection1_NetPing2_-2</t>
-  </si>
-  <si>
-    <t>NetProtection1 x NetPing2</t>
-  </si>
-  <si>
-    <t>NetProtection1_NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetProtection1 x NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetProtection2_NetControl2_3</t>
-  </si>
-  <si>
-    <t>NetProtection2 x NetControl2</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1_First_Orb</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1 x First_Orb</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1_NetControl2_3</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived1 x NetControl2</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived2_3_First_Orb | NetProtectionReceived2_1_First_Orb</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived2 x First_Orb</t>
-  </si>
-  <si>
-    <t>NetControl1_3_NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetControl1 x NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetControl2_3_TeamNetUltimates</t>
-  </si>
-  <si>
-    <t>NetControl2 x TeamNetUltimates</t>
-  </si>
-  <si>
-    <t>NetControl2_3_NetPing1_-1</t>
-  </si>
-  <si>
-    <t>NetControl2 x NetPing1</t>
-  </si>
-  <si>
-    <t>NetControl2_3_NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetControl2 x NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetControlReceived1_1_NetScorePerSecond1 | NetControlReceived1_3_NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetControlReceived1 x NetScorePerSecond1</t>
+    <t>NetDamage1_3_NetPing2_-2</t>
+  </si>
+  <si>
+    <t>NetDamage1 x NetPing2</t>
+  </si>
+  <si>
+    <t>NetDamage1_3_NetScorePerSecond2</t>
+  </si>
+  <si>
+    <t>NetDamage1 x NetScorePerSecond2</t>
+  </si>
+  <si>
+    <t>NetDamage1_3_NetLeagueDivisionValue1_3</t>
+  </si>
+  <si>
+    <t>NetDamage1 x NetLeagueDivisionValue1</t>
+  </si>
+  <si>
+    <t>NetProtection1_NetLeagueDivisionValue1_3</t>
+  </si>
+  <si>
+    <t>NetProtection1 x NetLeagueDivisionValue1</t>
+  </si>
+  <si>
+    <t>NetProtectionReceived1_NetControlReceived2_3</t>
+  </si>
+  <si>
+    <t>NetProtectionReceived1 x NetControlReceived2</t>
+  </si>
+  <si>
+    <t>NetProtectionReceived1_NetLeagueDivisionValue1_3</t>
+  </si>
+  <si>
+    <t>NetProtectionReceived1 x NetLeagueDivisionValue1</t>
+  </si>
+  <si>
+    <t>NetControlReceived1_3_NetScorePerSecond2 | NetControlReceived1_1_NetScorePerSecond2</t>
+  </si>
+  <si>
+    <t>NetControlReceived1 x NetScorePerSecond2</t>
   </si>
   <si>
     <t>NetControlReceived2_3_TeamRatioREX50</t>
@@ -725,22 +551,34 @@
     <t>NetControlReceived2 x NetHealthShards</t>
   </si>
   <si>
-    <t>NetPing1_-1_NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetPing1 x NetScorePerSecond2</t>
-  </si>
-  <si>
-    <t>NetPing2_-2_NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetPing2 x NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetScorePerSecond1_NetOrbs</t>
-  </si>
-  <si>
-    <t>NetScorePerSecond1 x NetOrbs</t>
+    <t>NetPing2_-2_NetProtection1</t>
+  </si>
+  <si>
+    <t>NetPing2 x NetProtection1</t>
+  </si>
+  <si>
+    <t>NetDamageReceived1_NetControl1_3</t>
+  </si>
+  <si>
+    <t>NetDamageReceived1 x NetControl1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1_NetProtection1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1 x NetProtection1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1_NetControlReceived1_3 | NetScorePerSecond1_NetControlReceived1_1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1 x NetControlReceived1</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1_NetPing2_-2</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1 x NetPing2</t>
   </si>
   <si>
     <t>NetScorePerSecond1_NetScorePerSecond2</t>
@@ -776,40 +614,34 @@
     <t>const</t>
   </si>
   <si>
+    <t>NetProtectionReceived2_1</t>
+  </si>
+  <si>
     <t>NetProtectionReceived2_3</t>
   </si>
   <si>
-    <t>NetProtectionReceived2_1</t>
+    <t>NetControlReceived1_3</t>
   </si>
   <si>
     <t>NetControlReceived1_1</t>
   </si>
   <si>
-    <t>NetControlReceived1_3</t>
-  </si>
-  <si>
-    <t>NetHealthShards_NetControlReceived1_1</t>
-  </si>
-  <si>
-    <t>NetHealthShards_NetControlReceived1_3</t>
+    <t>NetOrbs_NetProtectionReceived2_1</t>
   </si>
   <si>
     <t>NetOrbs_NetProtectionReceived2_3</t>
   </si>
   <si>
-    <t>NetOrbs_NetProtectionReceived2_1</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived2_3_First_Orb</t>
-  </si>
-  <si>
-    <t>NetProtectionReceived2_1_First_Orb</t>
-  </si>
-  <si>
-    <t>NetControlReceived1_1_NetScorePerSecond1</t>
-  </si>
-  <si>
-    <t>NetControlReceived1_3_NetScorePerSecond1</t>
+    <t>NetControlReceived1_3_NetScorePerSecond2</t>
+  </si>
+  <si>
+    <t>NetControlReceived1_1_NetScorePerSecond2</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1_NetControlReceived1_3</t>
+  </si>
+  <si>
+    <t>NetScorePerSecond1_NetControlReceived1_1</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1340,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>15412</v>
+        <v>15415</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -1352,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>29342</v>
+        <v>29297</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1360,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>13930</v>
+        <v>13882</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -1386,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>29342</v>
+        <v>29297</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1394,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>16846</v>
+        <v>16821</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
@@ -1411,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>12496</v>
+        <v>12476</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
@@ -1423,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>29342</v>
+        <v>29297</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1442,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>16658</v>
+        <v>16639</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
@@ -1454,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>29342</v>
+        <v>29297</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1462,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>12684</v>
+        <v>12658</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
@@ -1488,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>29342</v>
+        <v>29297</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1496,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>21617</v>
+        <v>21587</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>12</v>
@@ -1513,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>7725</v>
+        <v>7710</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
@@ -1525,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>29342</v>
+        <v>29297</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1544,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>22029</v>
+        <v>21993</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
@@ -1556,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>29342</v>
+        <v>29297</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1564,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>7313</v>
+        <v>7304</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
@@ -1590,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>29342</v>
+        <v>29297</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1598,13 +1430,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>15422</v>
+        <v>15403</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1612,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>13920</v>
+        <v>13894</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
@@ -1620,10 +1455,16 @@
       <c r="E20" t="n">
         <v>6</v>
       </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>29297</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="D21" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1668,7 +1509,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="D27" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1713,7 +1554,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="D33" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1758,7 +1599,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="D39" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1774,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="n">
-        <v>-80.37181499999998</v>
+        <v>-80.55000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1782,7 +1623,7 @@
         <v>11</v>
       </c>
       <c r="E42" t="n">
-        <v>80.19006</v>
+        <v>80.00006000000002</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1790,7 +1631,7 @@
         <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>232</v>
+        <v>231.75</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1803,7 +1644,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="D45" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1819,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>-226.633815</v>
+        <v>-226.365</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1835,7 +1676,7 @@
         <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>83.3374075</v>
+        <v>83.59482000000003</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1893,7 +1734,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="D57" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1909,7 +1750,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>-85.87500000000001</v>
+        <v>-85.5</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1925,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="E61" t="n">
-        <v>84.24492175</v>
+        <v>84.29600000000001</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1938,7 +1779,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="D63" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2028,7 +1869,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="D75" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2044,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>-62</v>
+        <v>-61.8</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2060,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="E79" t="n">
-        <v>63.0874975</v>
+        <v>63.125</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2073,7 +1914,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="D81" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2163,7 +2004,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="D93" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2208,7 +2049,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="D99" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2298,7 +2139,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="D111" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -2343,7 +2184,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="D117" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -2388,7 +2229,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="D123" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -2396,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>-2147483612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -2404,7 +2245,7 @@
         <v>8</v>
       </c>
       <c r="E125" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -2412,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="E126" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -2420,7 +2261,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -2428,7 +2269,7 @@
         <v>14</v>
       </c>
       <c r="E128" t="n">
-        <v>2147483635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -2441,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>-2147483607</v>
+        <v>-2147483612</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -2449,7 +2290,7 @@
         <v>8</v>
       </c>
       <c r="E131" t="n">
-        <v>-41</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -2465,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="E133" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -2478,7 +2319,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="D135" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -2486,7 +2327,7 @@
         <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>-2147483607</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -2494,7 +2335,7 @@
         <v>8</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -2502,7 +2343,7 @@
         <v>11</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -2510,7 +2351,7 @@
         <v>12</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -2518,12 +2359,12 @@
         <v>14</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>2147483635</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="D141" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -2531,7 +2372,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>-905.7332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -2539,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="E143" t="n">
-        <v>-138.49434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -2547,7 +2388,7 @@
         <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>-10.00001499999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -2555,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="E145" t="n">
-        <v>121.3117075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -2563,7 +2404,7 @@
         <v>14</v>
       </c>
       <c r="E146" t="n">
-        <v>837.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -2576,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>-882.8502</v>
+        <v>-905.7332</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -2584,7 +2425,7 @@
         <v>8</v>
       </c>
       <c r="E149" t="n">
-        <v>-112</v>
+        <v>-138.47736</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -2592,7 +2433,7 @@
         <v>11</v>
       </c>
       <c r="E150" t="n">
-        <v>-7.429089999999987</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -2600,7 +2441,7 @@
         <v>12</v>
       </c>
       <c r="E151" t="n">
-        <v>96.83866999999998</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -2608,12 +2449,12 @@
         <v>14</v>
       </c>
       <c r="E152" t="n">
-        <v>978.7412</v>
+        <v>837.6</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="D153" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -2621,7 +2462,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>-882.8502</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -2629,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -2637,7 +2478,7 @@
         <v>11</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>-7.403470000000027</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -2645,7 +2486,7 @@
         <v>12</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -2653,12 +2494,12 @@
         <v>14</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>978.7412</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="D159" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -2666,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>-52.68719657142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -2674,7 +2515,7 @@
         <v>8</v>
       </c>
       <c r="E161" t="n">
-        <v>-4.651265053427506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -2682,7 +2523,7 @@
         <v>11</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.4858761466763548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -2690,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="E163" t="n">
-        <v>4.386228836260393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -2698,7 +2539,7 @@
         <v>14</v>
       </c>
       <c r="E164" t="n">
-        <v>45.7572451748084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -2711,7 +2552,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>-22.09409825272332</v>
+        <v>-40.34544857142858</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -2719,7 +2560,7 @@
         <v>8</v>
       </c>
       <c r="E167" t="n">
-        <v>-3.062076941935416</v>
+        <v>-4.540924612555819</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -2727,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.1621071034819066</v>
+        <v>-0.1339285714285711</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -2735,7 +2576,7 @@
         <v>12</v>
       </c>
       <c r="E169" t="n">
-        <v>2.91107197789178</v>
+        <v>4.579353807917629</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -2743,12 +2584,12 @@
         <v>14</v>
       </c>
       <c r="E170" t="n">
-        <v>33.77632183908046</v>
+        <v>48.00180180180183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="D171" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -2756,7 +2597,7 @@
         <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>-17.68321750698239</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -2764,7 +2605,7 @@
         <v>8</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>-2.987586206896552</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -2772,7 +2613,7 @@
         <v>11</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>-0.05263157894736814</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -2780,7 +2621,7 @@
         <v>12</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>3.020863943579194</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -2788,12 +2629,12 @@
         <v>14</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>56.24456140350878</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="D177" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -2801,7 +2642,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -2809,7 +2650,7 @@
         <v>8</v>
       </c>
       <c r="E179" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -2825,7 +2666,7 @@
         <v>12</v>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -2833,7 +2674,7 @@
         <v>14</v>
       </c>
       <c r="E182" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -2854,7 +2695,7 @@
         <v>8</v>
       </c>
       <c r="E185" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -2883,7 +2724,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="D189" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -2891,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -2899,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -2915,7 +2756,7 @@
         <v>12</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -2923,6 +2764,51 @@
         <v>14</v>
       </c>
       <c r="E194" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="D195" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="D196" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="D197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="D198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="D199" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="D200" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2953,49 +2839,49 @@
   <sheetData>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9988951002463283</v>
+        <v>0.9989563674701692</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9990226877554615</v>
+        <v>0.9990754870085128</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="B17" t="n">
         <v>0.5</v>
       </c>
       <c r="F17" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9853361017389047</v>
+        <v>0.9862889076613165</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5220318355581819</v>
+        <v>0.5618116930167706</v>
       </c>
       <c r="F18" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7626269511280758</v>
+        <v>0.7630815441854115</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="F19" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -3003,10 +2889,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5100000000000002</v>
+        <v>0.5600000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3021,7 +2907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3035,18 +2921,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1533871167198215</v>
+        <v>0.1409759987521874</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3054,7 +2940,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2059183074465459</v>
+        <v>-0.1246056194581709</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3062,7 +2948,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.09592060525106899</v>
+        <v>0.1296284561255431</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3070,7 +2956,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2746016365184878</v>
+        <v>0.2907215340837062</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3078,7 +2964,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.02835784578379419</v>
+        <v>-0.03939122402968878</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3086,639 +2972,439 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2603280142835339</v>
+        <v>0.2564740487058949</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.02469062272672446</v>
+        <v>0.7740085459072045</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7305691973670428</v>
+        <v>-0.3399340893163149</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3851117448965908</v>
+        <v>-0.1321378697069631</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1471956260263809</v>
+        <v>0.08755546348761999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09331262933552721</v>
+        <v>0.01073506937534781</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02417588123632269</v>
+        <v>0.0213082302076958</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02230339009726618</v>
+        <v>0.02381997042463992</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02548228070712519</v>
+        <v>0.0157266627306857</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01811963756653951</v>
+        <v>-0.03948181297267619</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.03985190880717964</v>
+        <v>-0.02937801080432576</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.02992674506337912</v>
+        <v>-0.1140419842236379</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.08365019300367776</v>
+        <v>-0.2633222572008305</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2438053434116456</v>
+        <v>3.072351044467531e-10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="B21" t="n">
-        <v>2.280413682068645e-09</v>
+        <v>0.002855344277491697</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="B22" t="n">
-        <v>5.40366015858319e-07</v>
+        <v>2.38759649026255e-08</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="B23" t="n">
-        <v>4.535458193783064e-08</v>
+        <v>-8.837970348651883e-08</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="B24" t="n">
-        <v>0.001967514582380351</v>
+        <v>3.327763472797857e-08</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="B25" t="n">
-        <v>-8.484227132322181e-08</v>
+        <v>-0.005209760607590798</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.677946303910566e-07</v>
+        <v>-9.016480213900509e-08</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.00633411452475087</v>
+        <v>0.2840482057046367</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="B28" t="n">
-        <v>1.630990400569263e-07</v>
+        <v>0.0009345294117651287</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.875528090623073e-07</v>
+        <v>-0.1020714904843952</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B30" t="n">
-        <v>1.91576148420759</v>
+        <v>0.001810362564003744</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1462497565684588</v>
+        <v>-0.09434466615531882</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B32" t="n">
-        <v>0.001300136281248471</v>
+        <v>0.1490589902025866</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02360702212271561</v>
+        <v>0.2336890324763432</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B34" t="n">
-        <v>0.001595890871482605</v>
+        <v>8.228325858670892e-09</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09186072728813319</v>
+        <v>0.0004493957009882015</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="B36" t="n">
-        <v>4.350550800827346e-07</v>
+        <v>-0.0007944813903475413</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1083247550565933</v>
+        <v>8.51452702003987e-09</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B38" t="n">
-        <v>-3.817960862602136e-09</v>
+        <v>1.097780198635903e-07</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.001691994392573382</v>
+        <v>0.01399854295780104</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.002698052937332402</v>
+        <v>2.419866522372419e-10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.06824153028108623</v>
+        <v>0.0001467428755115381</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1075679761977104</v>
+        <v>3.861402285476204e-08</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2222599406931926</v>
+        <v>-1.054565621438822e-10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B44" t="n">
-        <v>1.008711734534544e-09</v>
+        <v>0.0002588362757535245</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.401840514904579</v>
+        <v>3.298141970062529e-09</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0708488922318565</v>
+        <v>-3.034693391759965e-10</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B47" t="n">
-        <v>2.561302157870613e-09</v>
+        <v>2.389282791254202e-11</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.000198233068680043</v>
+        <v>2.883680887166678e-06</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.719548814361617e-08</v>
+        <v>-1.529066859797386e-09</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0001747552004898645</v>
+        <v>1.317308796451472e-05</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0004096010439552948</v>
+        <v>6.572997415551148e-08</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0003973401893354054</v>
+        <v>-0.0004493772059859914</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="B53" t="n">
-        <v>1.4343483817249e-08</v>
+        <v>1.467091122596082e-07</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0013945406024985</v>
+        <v>-3.105934207471946e-08</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B55" t="n">
-        <v>1.167084487048998e-07</v>
+        <v>-0.004683760869347157</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B56" t="n">
-        <v>3.138548673247299e-08</v>
+        <v>-4.003282319873509e-10</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B57" t="n">
-        <v>0.005361585121141058</v>
+        <v>9.28998208059518e-05</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B58" t="n">
-        <v>-6.214443318533372e-11</v>
+        <v>3.790397475785244e-08</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0002251204185871305</v>
+        <v>-0.0002198461876945987</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.1848976240827113</v>
+        <v>-0.1325011521962496</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B61" t="n">
-        <v>0.000107996323564953</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>195</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-9.905450891318021e-08</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>197</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-1.342855567394655e-08</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>199</v>
-      </c>
-      <c r="B64" t="n">
-        <v>7.289560569666864e-08</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>201</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2.849813754472507e-07</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>203</v>
-      </c>
-      <c r="B66" t="n">
-        <v>6.702802393317358e-09</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>205</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-3.315098668591661e-06</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>207</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-0.002243907076232224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>209</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.0001295519690938085</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>211</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1.308221969683968e-09</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>213</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-0.001762322936506047</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>215</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2.958207246378596e-09</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>258</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-4.400702159052451e-08</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>259</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.004441833423120389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-2.167922254351565e-08</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1.188951423782785e-07</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>223</v>
-      </c>
-      <c r="B77" t="n">
-        <v>-7.551395080447654e-07</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>225</v>
-      </c>
-      <c r="B78" t="n">
-        <v>4.61251658300001e-08</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>260</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.0002883281808188175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>261</v>
-      </c>
-      <c r="B80" t="n">
-        <v>3.965227239467788e-08</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>229</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2.430409164678707e-07</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>231</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-3.307419791464942e-08</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-0.2645069183215832</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>235</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-0.1165192005673616</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>237</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.00978819369391948</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>239</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.002755680641369822</v>
+        <v>0.009606153672203237</v>
       </c>
     </row>
   </sheetData>
@@ -3732,7 +3418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3746,10 +3432,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="6" t="n"/>
       <c r="D1" s="6" t="n"/>
@@ -3764,7 +3450,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>2.287265254758642e-17</v>
+        <v>1.692174151843956e-17</v>
       </c>
       <c r="C2" s="6" t="n"/>
       <c r="D2" s="6" t="n"/>
@@ -3779,7 +3465,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>2.473605466006882e-36</v>
+        <v>5.484061188294774e-36</v>
       </c>
       <c r="C3" s="6" t="n"/>
       <c r="D3" s="6" t="n"/>
@@ -3794,7 +3480,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>4.183443228679193e-48</v>
+        <v>2.37228700364852e-48</v>
       </c>
       <c r="C4" s="6" t="n"/>
       <c r="D4" s="6" t="n"/>
@@ -3809,7 +3495,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>2.400101612086785e-40</v>
+        <v>2.183979865847607e-40</v>
       </c>
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="6" t="n"/>
@@ -3824,7 +3510,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>3.900007978344756e-76</v>
+        <v>1.261790870757971e-76</v>
       </c>
       <c r="C6" s="6" t="n"/>
       <c r="D6" s="6" t="n"/>
@@ -3839,7 +3525,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>1.3597949885961e-24</v>
+        <v>6.543534995762925e-25</v>
       </c>
       <c r="C7" s="6" t="n"/>
       <c r="D7" s="6" t="n"/>
@@ -3881,10 +3567,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>9.92650301141138e-249</v>
+        <v>2.500527663399962e-249</v>
       </c>
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
@@ -3896,7 +3582,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>0</v>
@@ -3911,10 +3597,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>1.555434023449042e-176</v>
+        <v>6.535779279441561e-176</v>
       </c>
       <c r="C12" s="6" t="n"/>
       <c r="D12" s="6" t="n"/>
@@ -3926,7 +3612,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>0</v>
@@ -3941,7 +3627,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="n">
         <v>0</v>
@@ -3956,10 +3642,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>6.278362794841512e-39</v>
+        <v>1.970557609842073e-38</v>
       </c>
       <c r="C15" s="6" t="n"/>
       <c r="D15" s="6" t="n"/>
@@ -3971,10 +3657,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>1.715259018173438e-265</v>
+        <v>9.137875031734904e-266</v>
       </c>
       <c r="C16" s="6" t="n"/>
       <c r="D16" s="6" t="n"/>
@@ -3986,10 +3672,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>2.248938278720279e-112</v>
+        <v>6.243898910783852e-112</v>
       </c>
       <c r="C17" s="6" t="n"/>
       <c r="D17" s="6" t="n"/>
@@ -4001,7 +3687,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>0</v>
@@ -4016,10 +3702,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>2.474511536632463e-165</v>
+        <v>6.262496352270937e-165</v>
       </c>
       <c r="C19" s="6" t="n"/>
       <c r="D19" s="6" t="n"/>
@@ -4031,7 +3717,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>0</v>
@@ -4046,7 +3732,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>0</v>
@@ -4061,10 +3747,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>1.938847808397452e-145</v>
+        <v>3.731438737928977e-145</v>
       </c>
       <c r="C22" s="6" t="n"/>
       <c r="D22" s="6" t="n"/>
@@ -4076,10 +3762,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6" t="n">
-        <v>0.08683187325236651</v>
+        <v>0.08753934081451933</v>
       </c>
       <c r="C23" s="6" t="n"/>
       <c r="D23" s="6" t="n"/>
@@ -4091,10 +3777,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>0.001568406267006407</v>
+        <v>0.001585720040484351</v>
       </c>
       <c r="C24" s="6" t="n"/>
       <c r="D24" s="6" t="n"/>
@@ -4106,7 +3792,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="6" t="n">
         <v>0</v>
@@ -4121,7 +3807,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="6" t="n">
         <v>0</v>
@@ -4136,7 +3822,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="6" t="n">
         <v>0</v>
@@ -4151,7 +3837,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="6" t="n">
         <v>0</v>
@@ -4166,10 +3852,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="6" t="n">
-        <v>5.093501161104887e-272</v>
+        <v>2.395065695373997e-272</v>
       </c>
       <c r="C29" s="6" t="n"/>
       <c r="D29" s="6" t="n"/>
@@ -4181,10 +3867,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6" t="n">
-        <v>2.561787985674656e-192</v>
+        <v>7.114172326386995e-193</v>
       </c>
       <c r="C30" s="6" t="n"/>
       <c r="D30" s="6" t="n"/>
@@ -4501,138 +4187,6 @@
       <c r="G58" s="6" t="n"/>
       <c r="H58" s="6" t="n"/>
       <c r="I58" s="6" t="n"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="6" t="n"/>
-      <c r="D59" s="6" t="n"/>
-      <c r="E59" s="6" t="n"/>
-      <c r="F59" s="6" t="n"/>
-      <c r="G59" s="6" t="n"/>
-      <c r="H59" s="6" t="n"/>
-      <c r="I59" s="6" t="n"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
-      <c r="C60" s="6" t="n"/>
-      <c r="D60" s="6" t="n"/>
-      <c r="E60" s="6" t="n"/>
-      <c r="F60" s="6" t="n"/>
-      <c r="G60" s="6" t="n"/>
-      <c r="H60" s="6" t="n"/>
-      <c r="I60" s="6" t="n"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="6" t="n"/>
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="6" t="n"/>
-      <c r="D61" s="6" t="n"/>
-      <c r="E61" s="6" t="n"/>
-      <c r="F61" s="6" t="n"/>
-      <c r="G61" s="6" t="n"/>
-      <c r="H61" s="6" t="n"/>
-      <c r="I61" s="6" t="n"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="6" t="n"/>
-      <c r="B62" s="6" t="n"/>
-      <c r="C62" s="6" t="n"/>
-      <c r="D62" s="6" t="n"/>
-      <c r="E62" s="6" t="n"/>
-      <c r="F62" s="6" t="n"/>
-      <c r="G62" s="6" t="n"/>
-      <c r="H62" s="6" t="n"/>
-      <c r="I62" s="6" t="n"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="6" t="n"/>
-      <c r="B63" s="6" t="n"/>
-      <c r="C63" s="6" t="n"/>
-      <c r="D63" s="6" t="n"/>
-      <c r="E63" s="6" t="n"/>
-      <c r="F63" s="6" t="n"/>
-      <c r="G63" s="6" t="n"/>
-      <c r="H63" s="6" t="n"/>
-      <c r="I63" s="6" t="n"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="6" t="n"/>
-      <c r="B64" s="6" t="n"/>
-      <c r="C64" s="6" t="n"/>
-      <c r="D64" s="6" t="n"/>
-      <c r="E64" s="6" t="n"/>
-      <c r="F64" s="6" t="n"/>
-      <c r="G64" s="6" t="n"/>
-      <c r="H64" s="6" t="n"/>
-      <c r="I64" s="6" t="n"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="6" t="n"/>
-      <c r="B65" s="6" t="n"/>
-      <c r="C65" s="6" t="n"/>
-      <c r="D65" s="6" t="n"/>
-      <c r="E65" s="6" t="n"/>
-      <c r="F65" s="6" t="n"/>
-      <c r="G65" s="6" t="n"/>
-      <c r="H65" s="6" t="n"/>
-      <c r="I65" s="6" t="n"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="6" t="n"/>
-      <c r="B66" s="6" t="n"/>
-      <c r="C66" s="6" t="n"/>
-      <c r="D66" s="6" t="n"/>
-      <c r="E66" s="6" t="n"/>
-      <c r="F66" s="6" t="n"/>
-      <c r="G66" s="6" t="n"/>
-      <c r="H66" s="6" t="n"/>
-      <c r="I66" s="6" t="n"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="6" t="n"/>
-      <c r="B67" s="6" t="n"/>
-      <c r="C67" s="6" t="n"/>
-      <c r="D67" s="6" t="n"/>
-      <c r="E67" s="6" t="n"/>
-      <c r="F67" s="6" t="n"/>
-      <c r="G67" s="6" t="n"/>
-      <c r="H67" s="6" t="n"/>
-      <c r="I67" s="6" t="n"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="6" t="n"/>
-      <c r="B68" s="6" t="n"/>
-      <c r="C68" s="6" t="n"/>
-      <c r="D68" s="6" t="n"/>
-      <c r="E68" s="6" t="n"/>
-      <c r="F68" s="6" t="n"/>
-      <c r="G68" s="6" t="n"/>
-      <c r="H68" s="6" t="n"/>
-      <c r="I68" s="6" t="n"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="6" t="n"/>
-      <c r="B69" s="6" t="n"/>
-      <c r="C69" s="6" t="n"/>
-      <c r="D69" s="6" t="n"/>
-      <c r="E69" s="6" t="n"/>
-      <c r="F69" s="6" t="n"/>
-      <c r="G69" s="6" t="n"/>
-      <c r="H69" s="6" t="n"/>
-      <c r="I69" s="6" t="n"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="6" t="n"/>
-      <c r="B70" s="6" t="n"/>
-      <c r="C70" s="6" t="n"/>
-      <c r="D70" s="6" t="n"/>
-      <c r="E70" s="6" t="n"/>
-      <c r="F70" s="6" t="n"/>
-      <c r="G70" s="6" t="n"/>
-      <c r="H70" s="6" t="n"/>
-      <c r="I70" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4645,7 +4199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4659,10 +4213,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="6" t="n"/>
       <c r="D1" s="6" t="n"/>
@@ -4777,7 +4331,9 @@
       <c r="I9" s="6" t="n"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
@@ -5314,138 +4870,6 @@
       <c r="G58" s="6" t="n"/>
       <c r="H58" s="6" t="n"/>
       <c r="I58" s="6" t="n"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="6" t="n"/>
-      <c r="D59" s="6" t="n"/>
-      <c r="E59" s="6" t="n"/>
-      <c r="F59" s="6" t="n"/>
-      <c r="G59" s="6" t="n"/>
-      <c r="H59" s="6" t="n"/>
-      <c r="I59" s="6" t="n"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
-      <c r="C60" s="6" t="n"/>
-      <c r="D60" s="6" t="n"/>
-      <c r="E60" s="6" t="n"/>
-      <c r="F60" s="6" t="n"/>
-      <c r="G60" s="6" t="n"/>
-      <c r="H60" s="6" t="n"/>
-      <c r="I60" s="6" t="n"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="6" t="n"/>
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="6" t="n"/>
-      <c r="D61" s="6" t="n"/>
-      <c r="E61" s="6" t="n"/>
-      <c r="F61" s="6" t="n"/>
-      <c r="G61" s="6" t="n"/>
-      <c r="H61" s="6" t="n"/>
-      <c r="I61" s="6" t="n"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="6" t="n"/>
-      <c r="B62" s="6" t="n"/>
-      <c r="C62" s="6" t="n"/>
-      <c r="D62" s="6" t="n"/>
-      <c r="E62" s="6" t="n"/>
-      <c r="F62" s="6" t="n"/>
-      <c r="G62" s="6" t="n"/>
-      <c r="H62" s="6" t="n"/>
-      <c r="I62" s="6" t="n"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="6" t="n"/>
-      <c r="B63" s="6" t="n"/>
-      <c r="C63" s="6" t="n"/>
-      <c r="D63" s="6" t="n"/>
-      <c r="E63" s="6" t="n"/>
-      <c r="F63" s="6" t="n"/>
-      <c r="G63" s="6" t="n"/>
-      <c r="H63" s="6" t="n"/>
-      <c r="I63" s="6" t="n"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="6" t="n"/>
-      <c r="B64" s="6" t="n"/>
-      <c r="C64" s="6" t="n"/>
-      <c r="D64" s="6" t="n"/>
-      <c r="E64" s="6" t="n"/>
-      <c r="F64" s="6" t="n"/>
-      <c r="G64" s="6" t="n"/>
-      <c r="H64" s="6" t="n"/>
-      <c r="I64" s="6" t="n"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="6" t="n"/>
-      <c r="B65" s="6" t="n"/>
-      <c r="C65" s="6" t="n"/>
-      <c r="D65" s="6" t="n"/>
-      <c r="E65" s="6" t="n"/>
-      <c r="F65" s="6" t="n"/>
-      <c r="G65" s="6" t="n"/>
-      <c r="H65" s="6" t="n"/>
-      <c r="I65" s="6" t="n"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="6" t="n"/>
-      <c r="B66" s="6" t="n"/>
-      <c r="C66" s="6" t="n"/>
-      <c r="D66" s="6" t="n"/>
-      <c r="E66" s="6" t="n"/>
-      <c r="F66" s="6" t="n"/>
-      <c r="G66" s="6" t="n"/>
-      <c r="H66" s="6" t="n"/>
-      <c r="I66" s="6" t="n"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="6" t="n"/>
-      <c r="B67" s="6" t="n"/>
-      <c r="C67" s="6" t="n"/>
-      <c r="D67" s="6" t="n"/>
-      <c r="E67" s="6" t="n"/>
-      <c r="F67" s="6" t="n"/>
-      <c r="G67" s="6" t="n"/>
-      <c r="H67" s="6" t="n"/>
-      <c r="I67" s="6" t="n"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="6" t="n"/>
-      <c r="B68" s="6" t="n"/>
-      <c r="C68" s="6" t="n"/>
-      <c r="D68" s="6" t="n"/>
-      <c r="E68" s="6" t="n"/>
-      <c r="F68" s="6" t="n"/>
-      <c r="G68" s="6" t="n"/>
-      <c r="H68" s="6" t="n"/>
-      <c r="I68" s="6" t="n"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="6" t="n"/>
-      <c r="B69" s="6" t="n"/>
-      <c r="C69" s="6" t="n"/>
-      <c r="D69" s="6" t="n"/>
-      <c r="E69" s="6" t="n"/>
-      <c r="F69" s="6" t="n"/>
-      <c r="G69" s="6" t="n"/>
-      <c r="H69" s="6" t="n"/>
-      <c r="I69" s="6" t="n"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="6" t="n"/>
-      <c r="B70" s="6" t="n"/>
-      <c r="C70" s="6" t="n"/>
-      <c r="D70" s="6" t="n"/>
-      <c r="E70" s="6" t="n"/>
-      <c r="F70" s="6" t="n"/>
-      <c r="G70" s="6" t="n"/>
-      <c r="H70" s="6" t="n"/>
-      <c r="I70" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5458,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5475,19 +4899,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="6" t="n"/>
       <c r="G1" s="6" t="n"/>
@@ -5499,16 +4923,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="6" t="n"/>
@@ -5520,16 +4944,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="6" t="n"/>
@@ -5541,16 +4965,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="6" t="n"/>
@@ -5562,16 +4986,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="6" t="n"/>
@@ -5583,16 +5007,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="6" t="n"/>
@@ -5604,16 +5028,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="6" t="n"/>
@@ -5625,16 +5049,16 @@
         <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="6" t="n"/>
@@ -5646,16 +5070,16 @@
         <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="6" t="n"/>
@@ -5664,19 +5088,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F10" s="6" t="n"/>
       <c r="G10" s="6" t="n"/>
@@ -5685,19 +5109,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="6" t="n"/>
       <c r="G11" s="6" t="n"/>
@@ -5706,19 +5130,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="6" t="n"/>
       <c r="G12" s="6" t="n"/>
@@ -5727,19 +5151,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="6" t="n"/>
@@ -5748,19 +5172,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="6" t="n"/>
@@ -5769,19 +5193,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="6" t="n"/>
       <c r="G15" s="6" t="n"/>
@@ -5790,19 +5214,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="6" t="n"/>
       <c r="G16" s="6" t="n"/>
@@ -5811,19 +5235,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="6" t="n"/>
       <c r="G17" s="6" t="n"/>
@@ -5832,19 +5256,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="6" t="n"/>
       <c r="G18" s="6" t="n"/>
@@ -5853,19 +5277,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F19" s="6" t="n"/>
       <c r="G19" s="6" t="n"/>
@@ -5874,19 +5298,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F20" s="6" t="n"/>
       <c r="G20" s="6" t="n"/>
@@ -5895,19 +5319,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F21" s="6" t="n"/>
       <c r="G21" s="6" t="n"/>
@@ -5916,19 +5340,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F22" s="6" t="n"/>
       <c r="G22" s="6" t="n"/>
@@ -5937,19 +5361,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F23" s="6" t="n"/>
       <c r="G23" s="6" t="n"/>
@@ -5958,19 +5382,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F24" s="6" t="n"/>
       <c r="G24" s="6" t="n"/>
@@ -5979,19 +5403,19 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="6" t="n"/>
       <c r="G25" s="6" t="n"/>
@@ -6000,19 +5424,19 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="6" t="n"/>
       <c r="G26" s="6" t="n"/>
@@ -6021,19 +5445,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="6" t="n"/>
       <c r="G27" s="6" t="n"/>
@@ -6042,19 +5466,19 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="6" t="n"/>
       <c r="G28" s="6" t="n"/>
@@ -6063,19 +5487,19 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" s="6" t="n"/>
       <c r="G29" s="6" t="n"/>
@@ -6084,19 +5508,19 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" s="6" t="n"/>
       <c r="G30" s="6" t="n"/>
@@ -6410,138 +5834,6 @@
       <c r="G58" s="6" t="n"/>
       <c r="H58" s="6" t="n"/>
       <c r="I58" s="6" t="n"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="6" t="n"/>
-      <c r="D59" s="6" t="n"/>
-      <c r="E59" s="6" t="n"/>
-      <c r="F59" s="6" t="n"/>
-      <c r="G59" s="6" t="n"/>
-      <c r="H59" s="6" t="n"/>
-      <c r="I59" s="6" t="n"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
-      <c r="C60" s="6" t="n"/>
-      <c r="D60" s="6" t="n"/>
-      <c r="E60" s="6" t="n"/>
-      <c r="F60" s="6" t="n"/>
-      <c r="G60" s="6" t="n"/>
-      <c r="H60" s="6" t="n"/>
-      <c r="I60" s="6" t="n"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="6" t="n"/>
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="6" t="n"/>
-      <c r="D61" s="6" t="n"/>
-      <c r="E61" s="6" t="n"/>
-      <c r="F61" s="6" t="n"/>
-      <c r="G61" s="6" t="n"/>
-      <c r="H61" s="6" t="n"/>
-      <c r="I61" s="6" t="n"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="6" t="n"/>
-      <c r="B62" s="6" t="n"/>
-      <c r="C62" s="6" t="n"/>
-      <c r="D62" s="6" t="n"/>
-      <c r="E62" s="6" t="n"/>
-      <c r="F62" s="6" t="n"/>
-      <c r="G62" s="6" t="n"/>
-      <c r="H62" s="6" t="n"/>
-      <c r="I62" s="6" t="n"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="6" t="n"/>
-      <c r="B63" s="6" t="n"/>
-      <c r="C63" s="6" t="n"/>
-      <c r="D63" s="6" t="n"/>
-      <c r="E63" s="6" t="n"/>
-      <c r="F63" s="6" t="n"/>
-      <c r="G63" s="6" t="n"/>
-      <c r="H63" s="6" t="n"/>
-      <c r="I63" s="6" t="n"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="6" t="n"/>
-      <c r="B64" s="6" t="n"/>
-      <c r="C64" s="6" t="n"/>
-      <c r="D64" s="6" t="n"/>
-      <c r="E64" s="6" t="n"/>
-      <c r="F64" s="6" t="n"/>
-      <c r="G64" s="6" t="n"/>
-      <c r="H64" s="6" t="n"/>
-      <c r="I64" s="6" t="n"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="6" t="n"/>
-      <c r="B65" s="6" t="n"/>
-      <c r="C65" s="6" t="n"/>
-      <c r="D65" s="6" t="n"/>
-      <c r="E65" s="6" t="n"/>
-      <c r="F65" s="6" t="n"/>
-      <c r="G65" s="6" t="n"/>
-      <c r="H65" s="6" t="n"/>
-      <c r="I65" s="6" t="n"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="6" t="n"/>
-      <c r="B66" s="6" t="n"/>
-      <c r="C66" s="6" t="n"/>
-      <c r="D66" s="6" t="n"/>
-      <c r="E66" s="6" t="n"/>
-      <c r="F66" s="6" t="n"/>
-      <c r="G66" s="6" t="n"/>
-      <c r="H66" s="6" t="n"/>
-      <c r="I66" s="6" t="n"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="6" t="n"/>
-      <c r="B67" s="6" t="n"/>
-      <c r="C67" s="6" t="n"/>
-      <c r="D67" s="6" t="n"/>
-      <c r="E67" s="6" t="n"/>
-      <c r="F67" s="6" t="n"/>
-      <c r="G67" s="6" t="n"/>
-      <c r="H67" s="6" t="n"/>
-      <c r="I67" s="6" t="n"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="6" t="n"/>
-      <c r="B68" s="6" t="n"/>
-      <c r="C68" s="6" t="n"/>
-      <c r="D68" s="6" t="n"/>
-      <c r="E68" s="6" t="n"/>
-      <c r="F68" s="6" t="n"/>
-      <c r="G68" s="6" t="n"/>
-      <c r="H68" s="6" t="n"/>
-      <c r="I68" s="6" t="n"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="6" t="n"/>
-      <c r="B69" s="6" t="n"/>
-      <c r="C69" s="6" t="n"/>
-      <c r="D69" s="6" t="n"/>
-      <c r="E69" s="6" t="n"/>
-      <c r="F69" s="6" t="n"/>
-      <c r="G69" s="6" t="n"/>
-      <c r="H69" s="6" t="n"/>
-      <c r="I69" s="6" t="n"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="6" t="n"/>
-      <c r="B70" s="6" t="n"/>
-      <c r="C70" s="6" t="n"/>
-      <c r="D70" s="6" t="n"/>
-      <c r="E70" s="6" t="n"/>
-      <c r="F70" s="6" t="n"/>
-      <c r="G70" s="6" t="n"/>
-      <c r="H70" s="6" t="n"/>
-      <c r="I70" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6554,7 +5846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6571,19 +5863,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="6" t="n"/>
       <c r="G1" s="6" t="n"/>
@@ -6595,16 +5887,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="6" t="n"/>
@@ -6616,16 +5908,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="6" t="n"/>
@@ -6637,16 +5929,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="6" t="n"/>
@@ -6658,16 +5950,16 @@
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="6" t="n"/>
@@ -6679,16 +5971,16 @@
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="6" t="n"/>
@@ -6700,16 +5992,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="6" t="n"/>
@@ -6721,16 +6013,16 @@
         <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="6" t="n"/>
@@ -6742,16 +6034,16 @@
         <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="6" t="n"/>
@@ -6759,11 +6051,21 @@
       <c r="I9" s="6" t="n"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="F10" s="6" t="n"/>
       <c r="G10" s="6" t="n"/>
       <c r="H10" s="6" t="n"/>
@@ -7296,138 +6598,6 @@
       <c r="G58" s="6" t="n"/>
       <c r="H58" s="6" t="n"/>
       <c r="I58" s="6" t="n"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="6" t="n"/>
-      <c r="D59" s="6" t="n"/>
-      <c r="E59" s="6" t="n"/>
-      <c r="F59" s="6" t="n"/>
-      <c r="G59" s="6" t="n"/>
-      <c r="H59" s="6" t="n"/>
-      <c r="I59" s="6" t="n"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
-      <c r="C60" s="6" t="n"/>
-      <c r="D60" s="6" t="n"/>
-      <c r="E60" s="6" t="n"/>
-      <c r="F60" s="6" t="n"/>
-      <c r="G60" s="6" t="n"/>
-      <c r="H60" s="6" t="n"/>
-      <c r="I60" s="6" t="n"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="6" t="n"/>
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="6" t="n"/>
-      <c r="D61" s="6" t="n"/>
-      <c r="E61" s="6" t="n"/>
-      <c r="F61" s="6" t="n"/>
-      <c r="G61" s="6" t="n"/>
-      <c r="H61" s="6" t="n"/>
-      <c r="I61" s="6" t="n"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="6" t="n"/>
-      <c r="B62" s="6" t="n"/>
-      <c r="C62" s="6" t="n"/>
-      <c r="D62" s="6" t="n"/>
-      <c r="E62" s="6" t="n"/>
-      <c r="F62" s="6" t="n"/>
-      <c r="G62" s="6" t="n"/>
-      <c r="H62" s="6" t="n"/>
-      <c r="I62" s="6" t="n"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="6" t="n"/>
-      <c r="B63" s="6" t="n"/>
-      <c r="C63" s="6" t="n"/>
-      <c r="D63" s="6" t="n"/>
-      <c r="E63" s="6" t="n"/>
-      <c r="F63" s="6" t="n"/>
-      <c r="G63" s="6" t="n"/>
-      <c r="H63" s="6" t="n"/>
-      <c r="I63" s="6" t="n"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="6" t="n"/>
-      <c r="B64" s="6" t="n"/>
-      <c r="C64" s="6" t="n"/>
-      <c r="D64" s="6" t="n"/>
-      <c r="E64" s="6" t="n"/>
-      <c r="F64" s="6" t="n"/>
-      <c r="G64" s="6" t="n"/>
-      <c r="H64" s="6" t="n"/>
-      <c r="I64" s="6" t="n"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="6" t="n"/>
-      <c r="B65" s="6" t="n"/>
-      <c r="C65" s="6" t="n"/>
-      <c r="D65" s="6" t="n"/>
-      <c r="E65" s="6" t="n"/>
-      <c r="F65" s="6" t="n"/>
-      <c r="G65" s="6" t="n"/>
-      <c r="H65" s="6" t="n"/>
-      <c r="I65" s="6" t="n"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="6" t="n"/>
-      <c r="B66" s="6" t="n"/>
-      <c r="C66" s="6" t="n"/>
-      <c r="D66" s="6" t="n"/>
-      <c r="E66" s="6" t="n"/>
-      <c r="F66" s="6" t="n"/>
-      <c r="G66" s="6" t="n"/>
-      <c r="H66" s="6" t="n"/>
-      <c r="I66" s="6" t="n"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="6" t="n"/>
-      <c r="B67" s="6" t="n"/>
-      <c r="C67" s="6" t="n"/>
-      <c r="D67" s="6" t="n"/>
-      <c r="E67" s="6" t="n"/>
-      <c r="F67" s="6" t="n"/>
-      <c r="G67" s="6" t="n"/>
-      <c r="H67" s="6" t="n"/>
-      <c r="I67" s="6" t="n"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="6" t="n"/>
-      <c r="B68" s="6" t="n"/>
-      <c r="C68" s="6" t="n"/>
-      <c r="D68" s="6" t="n"/>
-      <c r="E68" s="6" t="n"/>
-      <c r="F68" s="6" t="n"/>
-      <c r="G68" s="6" t="n"/>
-      <c r="H68" s="6" t="n"/>
-      <c r="I68" s="6" t="n"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="6" t="n"/>
-      <c r="B69" s="6" t="n"/>
-      <c r="C69" s="6" t="n"/>
-      <c r="D69" s="6" t="n"/>
-      <c r="E69" s="6" t="n"/>
-      <c r="F69" s="6" t="n"/>
-      <c r="G69" s="6" t="n"/>
-      <c r="H69" s="6" t="n"/>
-      <c r="I69" s="6" t="n"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="6" t="n"/>
-      <c r="B70" s="6" t="n"/>
-      <c r="C70" s="6" t="n"/>
-      <c r="D70" s="6" t="n"/>
-      <c r="E70" s="6" t="n"/>
-      <c r="F70" s="6" t="n"/>
-      <c r="G70" s="6" t="n"/>
-      <c r="H70" s="6" t="n"/>
-      <c r="I70" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -7440,7 +6610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7455,13 +6625,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="6" t="n"/>
       <c r="E1" s="6" t="n"/>
@@ -7475,10 +6645,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="n"/>
       <c r="E2" s="6" t="n"/>
@@ -7492,10 +6662,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="6" t="n"/>
@@ -7509,10 +6679,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="6" t="n"/>
@@ -7526,10 +6696,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="6" t="n"/>
       <c r="E5" s="6" t="n"/>
@@ -7543,10 +6713,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
@@ -7557,13 +6727,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="n"/>
       <c r="E7" s="6" t="n"/>
@@ -7574,13 +6744,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="6" t="n"/>
       <c r="E8" s="6" t="n"/>
@@ -7591,13 +6761,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="n"/>
       <c r="E9" s="6" t="n"/>
@@ -7608,13 +6778,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6" t="n"/>
       <c r="E10" s="6" t="n"/>
@@ -7625,13 +6795,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="n"/>
       <c r="E11" s="6" t="n"/>
@@ -7642,13 +6812,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="n"/>
       <c r="E12" s="6" t="n"/>
@@ -7659,13 +6829,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="n"/>
       <c r="E13" s="6" t="n"/>
@@ -7676,13 +6846,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="n"/>
       <c r="E14" s="6" t="n"/>
@@ -7693,13 +6863,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="n"/>
       <c r="E15" s="6" t="n"/>
@@ -7710,13 +6880,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="n"/>
       <c r="E16" s="6" t="n"/>
@@ -7727,13 +6897,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="n"/>
       <c r="E17" s="6" t="n"/>
@@ -7744,13 +6914,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6" t="n"/>
       <c r="E18" s="6" t="n"/>
@@ -7761,13 +6931,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="n"/>
       <c r="E19" s="6" t="n"/>
@@ -7778,13 +6948,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="n"/>
       <c r="E20" s="6" t="n"/>
@@ -7795,13 +6965,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
@@ -7812,13 +6982,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
@@ -7829,13 +6999,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
@@ -7846,13 +7016,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
@@ -7863,13 +7033,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="6" t="n"/>
       <c r="E25" s="6" t="n"/>
@@ -7879,15 +7049,9 @@
       <c r="I25" s="6" t="n"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
       <c r="D26" s="6" t="n"/>
       <c r="E26" s="6" t="n"/>
       <c r="F26" s="6" t="n"/>
@@ -7896,15 +7060,9 @@
       <c r="I26" s="6" t="n"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
       <c r="D27" s="6" t="n"/>
       <c r="E27" s="6" t="n"/>
       <c r="F27" s="6" t="n"/>
@@ -7913,15 +7071,9 @@
       <c r="I27" s="6" t="n"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
       <c r="D28" s="6" t="n"/>
       <c r="E28" s="6" t="n"/>
       <c r="F28" s="6" t="n"/>
@@ -7930,15 +7082,9 @@
       <c r="I28" s="6" t="n"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
       <c r="D29" s="6" t="n"/>
       <c r="E29" s="6" t="n"/>
       <c r="F29" s="6" t="n"/>
@@ -8264,138 +7410,6 @@
       <c r="G58" s="6" t="n"/>
       <c r="H58" s="6" t="n"/>
       <c r="I58" s="6" t="n"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="6" t="n"/>
-      <c r="D59" s="6" t="n"/>
-      <c r="E59" s="6" t="n"/>
-      <c r="F59" s="6" t="n"/>
-      <c r="G59" s="6" t="n"/>
-      <c r="H59" s="6" t="n"/>
-      <c r="I59" s="6" t="n"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
-      <c r="C60" s="6" t="n"/>
-      <c r="D60" s="6" t="n"/>
-      <c r="E60" s="6" t="n"/>
-      <c r="F60" s="6" t="n"/>
-      <c r="G60" s="6" t="n"/>
-      <c r="H60" s="6" t="n"/>
-      <c r="I60" s="6" t="n"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="6" t="n"/>
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="6" t="n"/>
-      <c r="D61" s="6" t="n"/>
-      <c r="E61" s="6" t="n"/>
-      <c r="F61" s="6" t="n"/>
-      <c r="G61" s="6" t="n"/>
-      <c r="H61" s="6" t="n"/>
-      <c r="I61" s="6" t="n"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="6" t="n"/>
-      <c r="B62" s="6" t="n"/>
-      <c r="C62" s="6" t="n"/>
-      <c r="D62" s="6" t="n"/>
-      <c r="E62" s="6" t="n"/>
-      <c r="F62" s="6" t="n"/>
-      <c r="G62" s="6" t="n"/>
-      <c r="H62" s="6" t="n"/>
-      <c r="I62" s="6" t="n"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="6" t="n"/>
-      <c r="B63" s="6" t="n"/>
-      <c r="C63" s="6" t="n"/>
-      <c r="D63" s="6" t="n"/>
-      <c r="E63" s="6" t="n"/>
-      <c r="F63" s="6" t="n"/>
-      <c r="G63" s="6" t="n"/>
-      <c r="H63" s="6" t="n"/>
-      <c r="I63" s="6" t="n"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="6" t="n"/>
-      <c r="B64" s="6" t="n"/>
-      <c r="C64" s="6" t="n"/>
-      <c r="D64" s="6" t="n"/>
-      <c r="E64" s="6" t="n"/>
-      <c r="F64" s="6" t="n"/>
-      <c r="G64" s="6" t="n"/>
-      <c r="H64" s="6" t="n"/>
-      <c r="I64" s="6" t="n"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="6" t="n"/>
-      <c r="B65" s="6" t="n"/>
-      <c r="C65" s="6" t="n"/>
-      <c r="D65" s="6" t="n"/>
-      <c r="E65" s="6" t="n"/>
-      <c r="F65" s="6" t="n"/>
-      <c r="G65" s="6" t="n"/>
-      <c r="H65" s="6" t="n"/>
-      <c r="I65" s="6" t="n"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="6" t="n"/>
-      <c r="B66" s="6" t="n"/>
-      <c r="C66" s="6" t="n"/>
-      <c r="D66" s="6" t="n"/>
-      <c r="E66" s="6" t="n"/>
-      <c r="F66" s="6" t="n"/>
-      <c r="G66" s="6" t="n"/>
-      <c r="H66" s="6" t="n"/>
-      <c r="I66" s="6" t="n"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="6" t="n"/>
-      <c r="B67" s="6" t="n"/>
-      <c r="C67" s="6" t="n"/>
-      <c r="D67" s="6" t="n"/>
-      <c r="E67" s="6" t="n"/>
-      <c r="F67" s="6" t="n"/>
-      <c r="G67" s="6" t="n"/>
-      <c r="H67" s="6" t="n"/>
-      <c r="I67" s="6" t="n"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="6" t="n"/>
-      <c r="B68" s="6" t="n"/>
-      <c r="C68" s="6" t="n"/>
-      <c r="D68" s="6" t="n"/>
-      <c r="E68" s="6" t="n"/>
-      <c r="F68" s="6" t="n"/>
-      <c r="G68" s="6" t="n"/>
-      <c r="H68" s="6" t="n"/>
-      <c r="I68" s="6" t="n"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="6" t="n"/>
-      <c r="B69" s="6" t="n"/>
-      <c r="C69" s="6" t="n"/>
-      <c r="D69" s="6" t="n"/>
-      <c r="E69" s="6" t="n"/>
-      <c r="F69" s="6" t="n"/>
-      <c r="G69" s="6" t="n"/>
-      <c r="H69" s="6" t="n"/>
-      <c r="I69" s="6" t="n"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="6" t="n"/>
-      <c r="B70" s="6" t="n"/>
-      <c r="C70" s="6" t="n"/>
-      <c r="D70" s="6" t="n"/>
-      <c r="E70" s="6" t="n"/>
-      <c r="F70" s="6" t="n"/>
-      <c r="G70" s="6" t="n"/>
-      <c r="H70" s="6" t="n"/>
-      <c r="I70" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8408,7 +7422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8426,22 +7440,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="6" t="n"/>
       <c r="H1" s="6" t="n"/>
@@ -8452,19 +7466,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="6" t="n"/>
@@ -8475,19 +7489,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" s="6" t="n"/>
       <c r="H3" s="6" t="n"/>
@@ -8498,19 +7512,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" s="6" t="n"/>
       <c r="H4" s="6" t="n"/>
@@ -8518,22 +7532,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="6" t="n"/>
       <c r="H5" s="6" t="n"/>
@@ -8541,22 +7555,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6" t="n"/>
       <c r="H6" s="6" t="n"/>
@@ -8564,22 +7578,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="6" t="n"/>
       <c r="H7" s="6" t="n"/>
@@ -8587,22 +7601,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="6" t="n"/>
       <c r="H8" s="6" t="n"/>
@@ -8610,10 +7624,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>2</v>
@@ -8622,10 +7636,10 @@
         <v>75</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G9" s="6" t="n"/>
       <c r="H9" s="6" t="n"/>
@@ -8633,22 +7647,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="6" t="n"/>
       <c r="H10" s="6" t="n"/>
@@ -8656,22 +7670,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="6" t="n"/>
       <c r="H11" s="6" t="n"/>
@@ -8679,22 +7693,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G12" s="6" t="n"/>
       <c r="H12" s="6" t="n"/>
@@ -8702,22 +7716,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" s="6" t="n"/>
       <c r="H13" s="6" t="n"/>
@@ -8725,22 +7739,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
@@ -8748,10 +7762,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>2</v>
@@ -8760,10 +7774,10 @@
         <v>79</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6" t="n"/>
       <c r="H15" s="6" t="n"/>
@@ -8771,22 +7785,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" s="6" t="n"/>
       <c r="H16" s="6" t="n"/>
@@ -8794,22 +7808,22 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" s="6" t="n"/>
       <c r="H17" s="6" t="n"/>
@@ -8817,22 +7831,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="6" t="n"/>
@@ -8840,22 +7854,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
@@ -8863,22 +7877,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="6" t="n"/>
@@ -8886,22 +7900,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="6" t="n"/>
@@ -8909,22 +7923,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="G22" s="6" t="n"/>
       <c r="H22" s="6" t="n"/>
@@ -8932,22 +7946,22 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" s="6" t="n"/>
       <c r="H23" s="6" t="n"/>
@@ -8955,22 +7969,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G24" s="6" t="n"/>
       <c r="H24" s="6" t="n"/>
@@ -8978,22 +7992,22 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G25" s="6" t="n"/>
       <c r="H25" s="6" t="n"/>
@@ -9001,22 +8015,22 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G26" s="6" t="n"/>
       <c r="H26" s="6" t="n"/>
@@ -9024,22 +8038,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="6" t="n"/>
       <c r="H27" s="6" t="n"/>
@@ -9047,22 +8061,22 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G28" s="6" t="n"/>
       <c r="H28" s="6" t="n"/>
@@ -9070,22 +8084,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" s="6" t="n"/>
       <c r="H29" s="6" t="n"/>
@@ -9093,22 +8107,22 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" s="6" t="n"/>
       <c r="H30" s="6" t="n"/>
@@ -9116,22 +8130,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G31" s="6" t="n"/>
       <c r="H31" s="6" t="n"/>
@@ -9139,22 +8153,22 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32" s="6" t="n"/>
       <c r="H32" s="6" t="n"/>
@@ -9162,10 +8176,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>2</v>
@@ -9174,10 +8188,10 @@
         <v>94</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G33" s="6" t="n"/>
       <c r="H33" s="6" t="n"/>
@@ -9185,22 +8199,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="G34" s="6" t="n"/>
       <c r="H34" s="6" t="n"/>
@@ -9208,22 +8222,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" s="6" t="n"/>
       <c r="H35" s="6" t="n"/>
@@ -9231,22 +8245,22 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G36" s="6" t="n"/>
       <c r="H36" s="6" t="n"/>
@@ -9254,19 +8268,19 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>85</v>
@@ -9277,22 +8291,22 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38" s="6" t="n"/>
       <c r="H38" s="6" t="n"/>
@@ -9300,22 +8314,22 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39" s="6" t="n"/>
       <c r="H39" s="6" t="n"/>
@@ -9323,22 +8337,22 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G40" s="6" t="n"/>
       <c r="H40" s="6" t="n"/>
@@ -9346,22 +8360,22 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G41" s="6" t="n"/>
       <c r="H41" s="6" t="n"/>
@@ -9369,22 +8383,22 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G42" s="6" t="n"/>
       <c r="H42" s="6" t="n"/>
@@ -9392,22 +8406,22 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G43" s="6" t="n"/>
       <c r="H43" s="6" t="n"/>
@@ -9415,22 +8429,22 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G44" s="6" t="n"/>
       <c r="H44" s="6" t="n"/>
@@ -9438,22 +8452,22 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G45" s="6" t="n"/>
       <c r="H45" s="6" t="n"/>
@@ -9461,22 +8475,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="G46" s="6" t="n"/>
       <c r="H46" s="6" t="n"/>
@@ -9484,22 +8498,22 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G47" s="6" t="n"/>
       <c r="H47" s="6" t="n"/>
@@ -9507,22 +8521,22 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G48" s="6" t="n"/>
       <c r="H48" s="6" t="n"/>
@@ -9530,22 +8544,22 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="G49" s="6" t="n"/>
       <c r="H49" s="6" t="n"/>
@@ -9553,22 +8567,22 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G50" s="6" t="n"/>
       <c r="H50" s="6" t="n"/>
@@ -9576,22 +8590,22 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G51" s="6" t="n"/>
       <c r="H51" s="6" t="n"/>
@@ -9599,22 +8613,22 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G52" s="6" t="n"/>
       <c r="H52" s="6" t="n"/>
@@ -9622,22 +8636,22 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G53" s="6" t="n"/>
       <c r="H53" s="6" t="n"/>
@@ -9645,22 +8659,22 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="G54" s="6" t="n"/>
       <c r="H54" s="6" t="n"/>
@@ -9668,22 +8682,22 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
@@ -9691,22 +8705,22 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G56" s="6" t="n"/>
       <c r="H56" s="6" t="n"/>
@@ -9714,22 +8728,22 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C57" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G57" s="6" t="n"/>
       <c r="H57" s="6" t="n"/>
@@ -9737,302 +8751,26 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="G58" s="6" t="n"/>
       <c r="H58" s="6" t="n"/>
       <c r="I58" s="6" t="n"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G59" s="6" t="n"/>
-      <c r="H59" s="6" t="n"/>
-      <c r="I59" s="6" t="n"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" s="6" t="n"/>
-      <c r="H60" s="6" t="n"/>
-      <c r="I60" s="6" t="n"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="6" t="n"/>
-      <c r="H61" s="6" t="n"/>
-      <c r="I61" s="6" t="n"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" s="6" t="n"/>
-      <c r="H62" s="6" t="n"/>
-      <c r="I62" s="6" t="n"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" s="6" t="n"/>
-      <c r="H63" s="6" t="n"/>
-      <c r="I63" s="6" t="n"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G64" s="6" t="n"/>
-      <c r="H64" s="6" t="n"/>
-      <c r="I64" s="6" t="n"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G65" s="6" t="n"/>
-      <c r="H65" s="6" t="n"/>
-      <c r="I65" s="6" t="n"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G66" s="6" t="n"/>
-      <c r="H66" s="6" t="n"/>
-      <c r="I66" s="6" t="n"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G67" s="6" t="n"/>
-      <c r="H67" s="6" t="n"/>
-      <c r="I67" s="6" t="n"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G68" s="6" t="n"/>
-      <c r="H68" s="6" t="n"/>
-      <c r="I68" s="6" t="n"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G69" s="6" t="n"/>
-      <c r="H69" s="6" t="n"/>
-      <c r="I69" s="6" t="n"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G70" s="6" t="n"/>
-      <c r="H70" s="6" t="n"/>
-      <c r="I70" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10045,7 +8783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10059,10 +8797,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C1" s="6" t="n"/>
       <c r="D1" s="6" t="n"/>
@@ -10077,7 +8815,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="n"/>
       <c r="D2" s="6" t="n"/>
@@ -10089,10 +8827,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="n"/>
       <c r="D3" s="6" t="n"/>
@@ -10104,10 +8842,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="n"/>
       <c r="D4" s="6" t="n"/>
@@ -10119,10 +8857,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="6" t="n"/>
@@ -10134,10 +8872,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="n"/>
       <c r="D6" s="6" t="n"/>
@@ -10149,10 +8887,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C7" s="6" t="n"/>
       <c r="D7" s="6" t="n"/>
@@ -10164,10 +8902,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6" t="n"/>
       <c r="D8" s="6" t="n"/>
@@ -10179,10 +8917,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
@@ -10194,10 +8932,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
@@ -10209,10 +8947,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C11" s="6" t="n"/>
       <c r="D11" s="6" t="n"/>
@@ -10224,10 +8962,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="C12" s="6" t="n"/>
       <c r="D12" s="6" t="n"/>
@@ -10239,10 +8977,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C13" s="6" t="n"/>
       <c r="D13" s="6" t="n"/>
@@ -10254,10 +8992,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C14" s="6" t="n"/>
       <c r="D14" s="6" t="n"/>
@@ -10269,10 +9007,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C15" s="6" t="n"/>
       <c r="D15" s="6" t="n"/>
@@ -10284,10 +9022,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="C16" s="6" t="n"/>
       <c r="D16" s="6" t="n"/>
@@ -10299,10 +9037,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C17" s="6" t="n"/>
       <c r="D17" s="6" t="n"/>
@@ -10314,10 +9052,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="C18" s="6" t="n"/>
       <c r="D18" s="6" t="n"/>
@@ -10329,10 +9067,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="n"/>
       <c r="D19" s="6" t="n"/>
@@ -10344,10 +9082,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C20" s="6" t="n"/>
       <c r="D20" s="6" t="n"/>
@@ -10358,12 +9096,8 @@
       <c r="I20" s="6" t="n"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="n"/>
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
@@ -10373,12 +9107,8 @@
       <c r="I21" s="6" t="n"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="n"/>
       <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
@@ -10388,12 +9118,8 @@
       <c r="I22" s="6" t="n"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="n"/>
       <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
@@ -10403,12 +9129,8 @@
       <c r="I23" s="6" t="n"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>138</v>
-      </c>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
       <c r="C24" s="6" t="n"/>
       <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
@@ -10790,138 +9512,6 @@
       <c r="G58" s="6" t="n"/>
       <c r="H58" s="6" t="n"/>
       <c r="I58" s="6" t="n"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="6" t="n"/>
-      <c r="D59" s="6" t="n"/>
-      <c r="E59" s="6" t="n"/>
-      <c r="F59" s="6" t="n"/>
-      <c r="G59" s="6" t="n"/>
-      <c r="H59" s="6" t="n"/>
-      <c r="I59" s="6" t="n"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
-      <c r="C60" s="6" t="n"/>
-      <c r="D60" s="6" t="n"/>
-      <c r="E60" s="6" t="n"/>
-      <c r="F60" s="6" t="n"/>
-      <c r="G60" s="6" t="n"/>
-      <c r="H60" s="6" t="n"/>
-      <c r="I60" s="6" t="n"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="6" t="n"/>
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="6" t="n"/>
-      <c r="D61" s="6" t="n"/>
-      <c r="E61" s="6" t="n"/>
-      <c r="F61" s="6" t="n"/>
-      <c r="G61" s="6" t="n"/>
-      <c r="H61" s="6" t="n"/>
-      <c r="I61" s="6" t="n"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="6" t="n"/>
-      <c r="B62" s="6" t="n"/>
-      <c r="C62" s="6" t="n"/>
-      <c r="D62" s="6" t="n"/>
-      <c r="E62" s="6" t="n"/>
-      <c r="F62" s="6" t="n"/>
-      <c r="G62" s="6" t="n"/>
-      <c r="H62" s="6" t="n"/>
-      <c r="I62" s="6" t="n"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="6" t="n"/>
-      <c r="B63" s="6" t="n"/>
-      <c r="C63" s="6" t="n"/>
-      <c r="D63" s="6" t="n"/>
-      <c r="E63" s="6" t="n"/>
-      <c r="F63" s="6" t="n"/>
-      <c r="G63" s="6" t="n"/>
-      <c r="H63" s="6" t="n"/>
-      <c r="I63" s="6" t="n"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="6" t="n"/>
-      <c r="B64" s="6" t="n"/>
-      <c r="C64" s="6" t="n"/>
-      <c r="D64" s="6" t="n"/>
-      <c r="E64" s="6" t="n"/>
-      <c r="F64" s="6" t="n"/>
-      <c r="G64" s="6" t="n"/>
-      <c r="H64" s="6" t="n"/>
-      <c r="I64" s="6" t="n"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="6" t="n"/>
-      <c r="B65" s="6" t="n"/>
-      <c r="C65" s="6" t="n"/>
-      <c r="D65" s="6" t="n"/>
-      <c r="E65" s="6" t="n"/>
-      <c r="F65" s="6" t="n"/>
-      <c r="G65" s="6" t="n"/>
-      <c r="H65" s="6" t="n"/>
-      <c r="I65" s="6" t="n"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="6" t="n"/>
-      <c r="B66" s="6" t="n"/>
-      <c r="C66" s="6" t="n"/>
-      <c r="D66" s="6" t="n"/>
-      <c r="E66" s="6" t="n"/>
-      <c r="F66" s="6" t="n"/>
-      <c r="G66" s="6" t="n"/>
-      <c r="H66" s="6" t="n"/>
-      <c r="I66" s="6" t="n"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="6" t="n"/>
-      <c r="B67" s="6" t="n"/>
-      <c r="C67" s="6" t="n"/>
-      <c r="D67" s="6" t="n"/>
-      <c r="E67" s="6" t="n"/>
-      <c r="F67" s="6" t="n"/>
-      <c r="G67" s="6" t="n"/>
-      <c r="H67" s="6" t="n"/>
-      <c r="I67" s="6" t="n"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="6" t="n"/>
-      <c r="B68" s="6" t="n"/>
-      <c r="C68" s="6" t="n"/>
-      <c r="D68" s="6" t="n"/>
-      <c r="E68" s="6" t="n"/>
-      <c r="F68" s="6" t="n"/>
-      <c r="G68" s="6" t="n"/>
-      <c r="H68" s="6" t="n"/>
-      <c r="I68" s="6" t="n"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="6" t="n"/>
-      <c r="B69" s="6" t="n"/>
-      <c r="C69" s="6" t="n"/>
-      <c r="D69" s="6" t="n"/>
-      <c r="E69" s="6" t="n"/>
-      <c r="F69" s="6" t="n"/>
-      <c r="G69" s="6" t="n"/>
-      <c r="H69" s="6" t="n"/>
-      <c r="I69" s="6" t="n"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="6" t="n"/>
-      <c r="B70" s="6" t="n"/>
-      <c r="C70" s="6" t="n"/>
-      <c r="D70" s="6" t="n"/>
-      <c r="E70" s="6" t="n"/>
-      <c r="F70" s="6" t="n"/>
-      <c r="G70" s="6" t="n"/>
-      <c r="H70" s="6" t="n"/>
-      <c r="I70" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10934,7 +9524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10949,10 +9539,10 @@
     <row r="1" spans="1:9">
       <c r="A1" s="6" t="n"/>
       <c r="B1" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D1" s="6" t="n"/>
       <c r="E1" s="6" t="n"/>
@@ -10966,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D2" s="6" t="n"/>
       <c r="E2" s="6" t="n"/>
@@ -10983,10 +9573,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="6" t="n"/>
@@ -11000,10 +9590,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="6" t="n"/>
@@ -11017,10 +9607,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D5" s="6" t="n"/>
       <c r="E5" s="6" t="n"/>
@@ -11034,10 +9624,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
@@ -11051,10 +9641,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D7" s="6" t="n"/>
       <c r="E7" s="6" t="n"/>
@@ -11068,10 +9658,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D8" s="6" t="n"/>
       <c r="E8" s="6" t="n"/>
@@ -11085,10 +9675,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D9" s="6" t="n"/>
       <c r="E9" s="6" t="n"/>
@@ -11102,10 +9692,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D10" s="6" t="n"/>
       <c r="E10" s="6" t="n"/>
@@ -11119,10 +9709,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D11" s="6" t="n"/>
       <c r="E11" s="6" t="n"/>
@@ -11136,10 +9726,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D12" s="6" t="n"/>
       <c r="E12" s="6" t="n"/>
@@ -11153,10 +9743,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D13" s="6" t="n"/>
       <c r="E13" s="6" t="n"/>
@@ -11170,10 +9760,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D14" s="6" t="n"/>
       <c r="E14" s="6" t="n"/>
@@ -11187,10 +9777,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D15" s="6" t="n"/>
       <c r="E15" s="6" t="n"/>
@@ -11204,10 +9794,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D16" s="6" t="n"/>
       <c r="E16" s="6" t="n"/>
@@ -11221,10 +9811,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D17" s="6" t="n"/>
       <c r="E17" s="6" t="n"/>
@@ -11238,10 +9828,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D18" s="6" t="n"/>
       <c r="E18" s="6" t="n"/>
@@ -11255,10 +9845,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D19" s="6" t="n"/>
       <c r="E19" s="6" t="n"/>
@@ -11272,10 +9862,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D20" s="6" t="n"/>
       <c r="E20" s="6" t="n"/>
@@ -11289,10 +9879,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
@@ -11306,10 +9896,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
@@ -11323,10 +9913,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
@@ -11340,10 +9930,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
@@ -11357,10 +9947,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D25" s="6" t="n"/>
       <c r="E25" s="6" t="n"/>
@@ -11374,10 +9964,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D26" s="6" t="n"/>
       <c r="E26" s="6" t="n"/>
@@ -11391,10 +9981,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D27" s="6" t="n"/>
       <c r="E27" s="6" t="n"/>
@@ -11408,10 +9998,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D28" s="6" t="n"/>
       <c r="E28" s="6" t="n"/>
@@ -11425,10 +10015,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D29" s="6" t="n"/>
       <c r="E29" s="6" t="n"/>
@@ -11442,10 +10032,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D30" s="6" t="n"/>
       <c r="E30" s="6" t="n"/>
@@ -11459,10 +10049,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D31" s="6" t="n"/>
       <c r="E31" s="6" t="n"/>
@@ -11472,15 +10062,9 @@
       <c r="I31" s="6" t="n"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>202</v>
-      </c>
+      <c r="A32" s="6" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="n"/>
       <c r="D32" s="6" t="n"/>
       <c r="E32" s="6" t="n"/>
       <c r="F32" s="6" t="n"/>
@@ -11489,15 +10073,9 @@
       <c r="I32" s="6" t="n"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>204</v>
-      </c>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
       <c r="D33" s="6" t="n"/>
       <c r="E33" s="6" t="n"/>
       <c r="F33" s="6" t="n"/>
@@ -11506,15 +10084,9 @@
       <c r="I33" s="6" t="n"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>206</v>
-      </c>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="n"/>
       <c r="D34" s="6" t="n"/>
       <c r="E34" s="6" t="n"/>
       <c r="F34" s="6" t="n"/>
@@ -11523,15 +10095,9 @@
       <c r="I34" s="6" t="n"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
       <c r="D35" s="6" t="n"/>
       <c r="E35" s="6" t="n"/>
       <c r="F35" s="6" t="n"/>
@@ -11540,15 +10106,9 @@
       <c r="I35" s="6" t="n"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
       <c r="D36" s="6" t="n"/>
       <c r="E36" s="6" t="n"/>
       <c r="F36" s="6" t="n"/>
@@ -11557,15 +10117,9 @@
       <c r="I36" s="6" t="n"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>212</v>
-      </c>
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
       <c r="D37" s="6" t="n"/>
       <c r="E37" s="6" t="n"/>
       <c r="F37" s="6" t="n"/>
@@ -11574,15 +10128,9 @@
       <c r="I37" s="6" t="n"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="5" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>214</v>
-      </c>
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
       <c r="D38" s="6" t="n"/>
       <c r="E38" s="6" t="n"/>
       <c r="F38" s="6" t="n"/>
@@ -11591,15 +10139,9 @@
       <c r="I38" s="6" t="n"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>216</v>
-      </c>
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="n"/>
       <c r="D39" s="6" t="n"/>
       <c r="E39" s="6" t="n"/>
       <c r="F39" s="6" t="n"/>
@@ -11608,15 +10150,9 @@
       <c r="I39" s="6" t="n"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>218</v>
-      </c>
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="6" t="n"/>
       <c r="D40" s="6" t="n"/>
       <c r="E40" s="6" t="n"/>
       <c r="F40" s="6" t="n"/>
@@ -11625,15 +10161,9 @@
       <c r="I40" s="6" t="n"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="5" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>220</v>
-      </c>
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="6" t="n"/>
       <c r="D41" s="6" t="n"/>
       <c r="E41" s="6" t="n"/>
       <c r="F41" s="6" t="n"/>
@@ -11642,15 +10172,9 @@
       <c r="I41" s="6" t="n"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>222</v>
-      </c>
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="6" t="n"/>
       <c r="D42" s="6" t="n"/>
       <c r="E42" s="6" t="n"/>
       <c r="F42" s="6" t="n"/>
@@ -11659,15 +10183,9 @@
       <c r="I42" s="6" t="n"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="n"/>
       <c r="D43" s="6" t="n"/>
       <c r="E43" s="6" t="n"/>
       <c r="F43" s="6" t="n"/>
@@ -11676,15 +10194,9 @@
       <c r="I43" s="6" t="n"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="5" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>226</v>
-      </c>
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
       <c r="D44" s="6" t="n"/>
       <c r="E44" s="6" t="n"/>
       <c r="F44" s="6" t="n"/>
@@ -11693,15 +10205,9 @@
       <c r="I44" s="6" t="n"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="5" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>228</v>
-      </c>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
       <c r="D45" s="6" t="n"/>
       <c r="E45" s="6" t="n"/>
       <c r="F45" s="6" t="n"/>
@@ -11710,15 +10216,9 @@
       <c r="I45" s="6" t="n"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="5" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>230</v>
-      </c>
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="n"/>
       <c r="D46" s="6" t="n"/>
       <c r="E46" s="6" t="n"/>
       <c r="F46" s="6" t="n"/>
@@ -11727,15 +10227,9 @@
       <c r="I46" s="6" t="n"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>232</v>
-      </c>
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="n"/>
       <c r="D47" s="6" t="n"/>
       <c r="E47" s="6" t="n"/>
       <c r="F47" s="6" t="n"/>
@@ -11744,15 +10238,9 @@
       <c r="I47" s="6" t="n"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="5" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>234</v>
-      </c>
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="n"/>
       <c r="D48" s="6" t="n"/>
       <c r="E48" s="6" t="n"/>
       <c r="F48" s="6" t="n"/>
@@ -11761,15 +10249,9 @@
       <c r="I48" s="6" t="n"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="n"/>
       <c r="D49" s="6" t="n"/>
       <c r="E49" s="6" t="n"/>
       <c r="F49" s="6" t="n"/>
@@ -11778,15 +10260,9 @@
       <c r="I49" s="6" t="n"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="5" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="n"/>
       <c r="D50" s="6" t="n"/>
       <c r="E50" s="6" t="n"/>
       <c r="F50" s="6" t="n"/>
@@ -11795,15 +10271,9 @@
       <c r="I50" s="6" t="n"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="5" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>240</v>
-      </c>
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="n"/>
       <c r="D51" s="6" t="n"/>
       <c r="E51" s="6" t="n"/>
       <c r="F51" s="6" t="n"/>
@@ -11888,138 +10358,6 @@
       <c r="H58" s="6" t="n"/>
       <c r="I58" s="6" t="n"/>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="6" t="n"/>
-      <c r="D59" s="6" t="n"/>
-      <c r="E59" s="6" t="n"/>
-      <c r="F59" s="6" t="n"/>
-      <c r="G59" s="6" t="n"/>
-      <c r="H59" s="6" t="n"/>
-      <c r="I59" s="6" t="n"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
-      <c r="C60" s="6" t="n"/>
-      <c r="D60" s="6" t="n"/>
-      <c r="E60" s="6" t="n"/>
-      <c r="F60" s="6" t="n"/>
-      <c r="G60" s="6" t="n"/>
-      <c r="H60" s="6" t="n"/>
-      <c r="I60" s="6" t="n"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="6" t="n"/>
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="6" t="n"/>
-      <c r="D61" s="6" t="n"/>
-      <c r="E61" s="6" t="n"/>
-      <c r="F61" s="6" t="n"/>
-      <c r="G61" s="6" t="n"/>
-      <c r="H61" s="6" t="n"/>
-      <c r="I61" s="6" t="n"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="6" t="n"/>
-      <c r="B62" s="6" t="n"/>
-      <c r="C62" s="6" t="n"/>
-      <c r="D62" s="6" t="n"/>
-      <c r="E62" s="6" t="n"/>
-      <c r="F62" s="6" t="n"/>
-      <c r="G62" s="6" t="n"/>
-      <c r="H62" s="6" t="n"/>
-      <c r="I62" s="6" t="n"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="6" t="n"/>
-      <c r="B63" s="6" t="n"/>
-      <c r="C63" s="6" t="n"/>
-      <c r="D63" s="6" t="n"/>
-      <c r="E63" s="6" t="n"/>
-      <c r="F63" s="6" t="n"/>
-      <c r="G63" s="6" t="n"/>
-      <c r="H63" s="6" t="n"/>
-      <c r="I63" s="6" t="n"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="6" t="n"/>
-      <c r="B64" s="6" t="n"/>
-      <c r="C64" s="6" t="n"/>
-      <c r="D64" s="6" t="n"/>
-      <c r="E64" s="6" t="n"/>
-      <c r="F64" s="6" t="n"/>
-      <c r="G64" s="6" t="n"/>
-      <c r="H64" s="6" t="n"/>
-      <c r="I64" s="6" t="n"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="6" t="n"/>
-      <c r="B65" s="6" t="n"/>
-      <c r="C65" s="6" t="n"/>
-      <c r="D65" s="6" t="n"/>
-      <c r="E65" s="6" t="n"/>
-      <c r="F65" s="6" t="n"/>
-      <c r="G65" s="6" t="n"/>
-      <c r="H65" s="6" t="n"/>
-      <c r="I65" s="6" t="n"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="6" t="n"/>
-      <c r="B66" s="6" t="n"/>
-      <c r="C66" s="6" t="n"/>
-      <c r="D66" s="6" t="n"/>
-      <c r="E66" s="6" t="n"/>
-      <c r="F66" s="6" t="n"/>
-      <c r="G66" s="6" t="n"/>
-      <c r="H66" s="6" t="n"/>
-      <c r="I66" s="6" t="n"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="6" t="n"/>
-      <c r="B67" s="6" t="n"/>
-      <c r="C67" s="6" t="n"/>
-      <c r="D67" s="6" t="n"/>
-      <c r="E67" s="6" t="n"/>
-      <c r="F67" s="6" t="n"/>
-      <c r="G67" s="6" t="n"/>
-      <c r="H67" s="6" t="n"/>
-      <c r="I67" s="6" t="n"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="6" t="n"/>
-      <c r="B68" s="6" t="n"/>
-      <c r="C68" s="6" t="n"/>
-      <c r="D68" s="6" t="n"/>
-      <c r="E68" s="6" t="n"/>
-      <c r="F68" s="6" t="n"/>
-      <c r="G68" s="6" t="n"/>
-      <c r="H68" s="6" t="n"/>
-      <c r="I68" s="6" t="n"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="6" t="n"/>
-      <c r="B69" s="6" t="n"/>
-      <c r="C69" s="6" t="n"/>
-      <c r="D69" s="6" t="n"/>
-      <c r="E69" s="6" t="n"/>
-      <c r="F69" s="6" t="n"/>
-      <c r="G69" s="6" t="n"/>
-      <c r="H69" s="6" t="n"/>
-      <c r="I69" s="6" t="n"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="6" t="n"/>
-      <c r="B70" s="6" t="n"/>
-      <c r="C70" s="6" t="n"/>
-      <c r="D70" s="6" t="n"/>
-      <c r="E70" s="6" t="n"/>
-      <c r="F70" s="6" t="n"/>
-      <c r="G70" s="6" t="n"/>
-      <c r="H70" s="6" t="n"/>
-      <c r="I70" s="6" t="n"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
